--- a/assets/products.xlsx
+++ b/assets/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMarian\Desktop\API Testing\price-scrap\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F80E353-1C68-449E-B182-DC7239C22F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B729243-1856-4614-A66A-87621B8531D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product Name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Product URL</t>
   </si>
   <si>
-    <t>Aspirator pentru piscina 1,2 m</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>https://www.emag.ro/crema-pentru-ochi-elmiplant-hyaluronic-gold-femei-15-ml-5201314114543/pd/DFSFMGBBM</t>
-  </si>
-  <si>
-    <t>https://www.emag.ro/aspirator-pentru-piscina-1-2-m-90402/pd/DGP1J0MBM</t>
   </si>
   <si>
     <t>Bautura de Ovaz Standard Minor Figures bax 6L</t>
@@ -395,7 +389,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,47 +408,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/products.xlsx
+++ b/assets/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMarian\Desktop\API Testing\price-scrap\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B729243-1856-4614-A66A-87621B8531D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D41C02-CFE5-43D3-A699-898A24D8858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Product Name</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>https://www.emag.ro/cafea-organica-house-roast-exhale-boabe-x001qp1mud/pd/DRLBHKYBM</t>
+  </si>
+  <si>
+    <t>https://www.emag.ro/prelata-acoperire-piscina-pvc-neagra-366-cm-bestway-8050060/pd/D828Z4MBM</t>
+  </si>
+  <si>
+    <t>Prelata acoperire piscina, PVC, neagra, 366 cm, Bestway</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" activeCellId="1" sqref="A6 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +444,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
